--- a/Glossary.xlsx
+++ b/Glossary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/zby_zhou_mail_utoronto_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zby15\Documents\GitHub\program-evaluation-glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="665" documentId="11_F25DC773A252ABDACC10488561987F1C5BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{312DAF20-D1EA-4581-B972-41C4BE2E79E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8459497B-4146-43FF-8BD5-E5AFF17A4904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="1364">
   <si>
     <t>https://evaluationcanada.ca/career/what-is-evaluation.html</t>
   </si>
@@ -4312,6 +4312,441 @@
   </si>
   <si>
     <t>A group of people selected for their relevance to an evaluation that is engaged by a trained facilitator in a series of discussions designed for sharing insights, ideas, and observations on a topic of concern.</t>
+  </si>
+  <si>
+    <t>Attention To Stakeholders</t>
+  </si>
+  <si>
+    <t>Audit And Accountability</t>
+  </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>Causal Inference</t>
+  </si>
+  <si>
+    <t>Ces (Canadian Evaluation Society)</t>
+  </si>
+  <si>
+    <t>Clarity And Fairness</t>
+  </si>
+  <si>
+    <t>Communication And Reporting</t>
+  </si>
+  <si>
+    <t>Comparison Group</t>
+  </si>
+  <si>
+    <t>Concern For Consequences And Influence</t>
+  </si>
+  <si>
+    <t>Conclusion Validity</t>
+  </si>
+  <si>
+    <t>Confidence Level</t>
+  </si>
+  <si>
+    <t>Conflict Of Interest</t>
+  </si>
+  <si>
+    <t>Conflicts Of Interests</t>
+  </si>
+  <si>
+    <t>Context And Complexity</t>
+  </si>
+  <si>
+    <t>Context-Mechanism-Outcome (Cmo) Configuration</t>
+  </si>
+  <si>
+    <t>Control Group</t>
+  </si>
+  <si>
+    <t>Cost-Benefit Analysis</t>
+  </si>
+  <si>
+    <t>Cost-Effectiveness Analysis</t>
+  </si>
+  <si>
+    <t>Credentialed Evaluator (Ce)</t>
+  </si>
+  <si>
+    <t>Cross-Sectional Data</t>
+  </si>
+  <si>
+    <t>Cross-Sectional Designs</t>
+  </si>
+  <si>
+    <t>Data Collection Method</t>
+  </si>
+  <si>
+    <t>Degree Of Stakeholder Engagement</t>
+  </si>
+  <si>
+    <t>Descriptive Statistical Analysis</t>
+  </si>
+  <si>
+    <t>Diffusion Or Imitation Of Treatment</t>
+  </si>
+  <si>
+    <t>Direct Analytic Methods</t>
+  </si>
+  <si>
+    <t>Empowerment Evaluation (Ee)</t>
+  </si>
+  <si>
+    <t>Ethics In Evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation Capacity</t>
+  </si>
+  <si>
+    <t>Evaluation Capacity Building (Ecb)</t>
+  </si>
+  <si>
+    <t>Evaluation Design</t>
+  </si>
+  <si>
+    <t>Evaluation Plan</t>
+  </si>
+  <si>
+    <t>Evaluation Stakeholder</t>
+  </si>
+  <si>
+    <t>Evaluation Strategy</t>
+  </si>
+  <si>
+    <t>Evaluative Sroi</t>
+  </si>
+  <si>
+    <t>Ex Ante Cost-Benefit Or Cost-Effectiveness Analysis</t>
+  </si>
+  <si>
+    <t>Ex Post Cost-Benefit Or Cost-Effectiveness Analysis</t>
+  </si>
+  <si>
+    <t>Executive Summary</t>
+  </si>
+  <si>
+    <t>Experimental Designs</t>
+  </si>
+  <si>
+    <t>Expert Opinion</t>
+  </si>
+  <si>
+    <t>Explicit Program And Context Descriptions</t>
+  </si>
+  <si>
+    <t>External Validity</t>
+  </si>
+  <si>
+    <t>File Review</t>
+  </si>
+  <si>
+    <t>Focus Group</t>
+  </si>
+  <si>
+    <t>Forecast Sroi</t>
+  </si>
+  <si>
+    <t>Formative Evaluation</t>
+  </si>
+  <si>
+    <t>History And Program Interaction</t>
+  </si>
+  <si>
+    <t>Human Rights And Respect</t>
+  </si>
+  <si>
+    <t>Ideal Evaluation Design</t>
+  </si>
+  <si>
+    <t>Implicit Design</t>
+  </si>
+  <si>
+    <t>Inferential Statistical Analysis</t>
+  </si>
+  <si>
+    <t>Informal Conversational Interview</t>
+  </si>
+  <si>
+    <t>Initial Working Theories (Iwts)</t>
+  </si>
+  <si>
+    <t>Institutional Review Board (Irb)</t>
+  </si>
+  <si>
+    <t>Integrated System For Data Collection</t>
+  </si>
+  <si>
+    <t>Interaction Effect</t>
+  </si>
+  <si>
+    <t>Internal Validity</t>
+  </si>
+  <si>
+    <t>Interpersonal Practice</t>
+  </si>
+  <si>
+    <t>Interview Guide</t>
+  </si>
+  <si>
+    <t>Interviewer Bias</t>
+  </si>
+  <si>
+    <t>Justified Conclusions And Decisions</t>
+  </si>
+  <si>
+    <t>Life Effectiveness Questionnaire (Leq)</t>
+  </si>
+  <si>
+    <t>List Sampling</t>
+  </si>
+  <si>
+    <t>Literature Search</t>
+  </si>
+  <si>
+    <t>Logic Model (Or Theory Of Change Model)</t>
+  </si>
+  <si>
+    <t>Longitudinal Data</t>
+  </si>
+  <si>
+    <t>Longitudinal Designs</t>
+  </si>
+  <si>
+    <t>Macro-Economic Model</t>
+  </si>
+  <si>
+    <t>Main Effects</t>
+  </si>
+  <si>
+    <t>Management Practice</t>
+  </si>
+  <si>
+    <t>Meaningful Processes And Products</t>
+  </si>
+  <si>
+    <t>Measurement Validity</t>
+  </si>
+  <si>
+    <t>Measuring Devices Or Instruments</t>
+  </si>
+  <si>
+    <t>Micro-Economic Model</t>
+  </si>
+  <si>
+    <t>Monetary Policy</t>
+  </si>
+  <si>
+    <t>Monitoring And Evaluation (M&amp;E) Implications</t>
+  </si>
+  <si>
+    <t>Multiple Lines Of Evidence</t>
+  </si>
+  <si>
+    <t>Natural Observation</t>
+  </si>
+  <si>
+    <t>Nonexperimental Designs</t>
+  </si>
+  <si>
+    <t>Non-Probability Sampling</t>
+  </si>
+  <si>
+    <t>Nonprofit Organization (Npo)</t>
+  </si>
+  <si>
+    <t>Non-Response</t>
+  </si>
+  <si>
+    <t>Non‑Response Bias</t>
+  </si>
+  <si>
+    <t>Non-Sampling Error</t>
+  </si>
+  <si>
+    <t>Objective Data</t>
+  </si>
+  <si>
+    <t>Order Bias</t>
+  </si>
+  <si>
+    <t>Outcome Effectiveness Issues</t>
+  </si>
+  <si>
+    <t>Outcome Evaluation</t>
+  </si>
+  <si>
+    <t>Plausible Hypotheses</t>
+  </si>
+  <si>
+    <t>Primary Data</t>
+  </si>
+  <si>
+    <t>Probability Sampling</t>
+  </si>
+  <si>
+    <t>Process Evaluation</t>
+  </si>
+  <si>
+    <t>Program Evaluation</t>
+  </si>
+  <si>
+    <t>Program Evaluation Standards</t>
+  </si>
+  <si>
+    <t>Program Goal</t>
+  </si>
+  <si>
+    <t>Qualitative Data</t>
+  </si>
+  <si>
+    <t>Quality Of Life Improvements</t>
+  </si>
+  <si>
+    <t>Quantitative Data</t>
+  </si>
+  <si>
+    <t>Quasi-Experimental Design</t>
+  </si>
+  <si>
+    <t>Random Digit Dialing</t>
+  </si>
+  <si>
+    <t>Reconciliaction</t>
+  </si>
+  <si>
+    <t>Reflective Practice</t>
+  </si>
+  <si>
+    <t>Regression Artifacts</t>
+  </si>
+  <si>
+    <t>Replicate Sampling</t>
+  </si>
+  <si>
+    <t>Request For Proposal (Rfp)</t>
+  </si>
+  <si>
+    <t>Responsive And Inclusive Orientation</t>
+  </si>
+  <si>
+    <t>Robust Toc</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Sample Size Formula</t>
+  </si>
+  <si>
+    <t>Sampling Error</t>
+  </si>
+  <si>
+    <t>Sampling Frame</t>
+  </si>
+  <si>
+    <t>Sampling Method</t>
+  </si>
+  <si>
+    <t>Sampling Unit</t>
+  </si>
+  <si>
+    <t>Secondary Data</t>
+  </si>
+  <si>
+    <t>Selection And Program Interaction</t>
+  </si>
+  <si>
+    <t>Selection Bias</t>
+  </si>
+  <si>
+    <t>Self-Awareness</t>
+  </si>
+  <si>
+    <t>Setting And Program Interaction</t>
+  </si>
+  <si>
+    <t>Situational Practice</t>
+  </si>
+  <si>
+    <t>Sliding Scale Of Collaboration</t>
+  </si>
+  <si>
+    <t>Social Responsiveness Scale (Srs-2)</t>
+  </si>
+  <si>
+    <t>Social Return On Investment (Sroi)</t>
+  </si>
+  <si>
+    <t>Socio-Economic Indexes For Areas (Seifa)</t>
+  </si>
+  <si>
+    <t>Sound Designs And Analyses</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Standardized Format Interview</t>
+  </si>
+  <si>
+    <t>Standards For Educational Evaluation (Jcsee)</t>
+  </si>
+  <si>
+    <t>Statistical Analysis</t>
+  </si>
+  <si>
+    <t>Statistical Model</t>
+  </si>
+  <si>
+    <t>Statistically Significant Effects</t>
+  </si>
+  <si>
+    <t>Stratified Sampling</t>
+  </si>
+  <si>
+    <t>Subjective Data</t>
+  </si>
+  <si>
+    <t>Summative Evaluation</t>
+  </si>
+  <si>
+    <t>Technical Practice</t>
+  </si>
+  <si>
+    <t>Testing Bias</t>
+  </si>
+  <si>
+    <t>The Keys To Success</t>
+  </si>
+  <si>
+    <t>Theory Of Change</t>
+  </si>
+  <si>
+    <t>Timely And Appropriate Communicating And Reporting</t>
+  </si>
+  <si>
+    <t>Trade-Offs</t>
+  </si>
+  <si>
+    <t>Transparency And Disclosure</t>
+  </si>
+  <si>
+    <t>Treatment Group</t>
+  </si>
+  <si>
+    <t>Under-Developed Tocs</t>
+  </si>
+  <si>
+    <t>Validity And Reliability</t>
+  </si>
+  <si>
+    <t>Work-Integrated Learning (Wil)</t>
+  </si>
+  <si>
+    <t>Youth At Risk Program Evaluation Tool (Yarpet)</t>
   </si>
 </sst>
 </file>
@@ -4440,10 +4875,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11936,11 +12367,11 @@
     <sortCondition ref="A382:A529"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B529:B1048576 B1:B524">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11951,8 +12382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF166E9-B1F3-4273-B853-B0C257DC1948}">
   <dimension ref="A1:F418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12204,7 +12635,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -12254,7 +12685,7 @@
         <v>195</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>628</v>
+        <v>1220</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>629</v>
@@ -12422,7 +12853,7 @@
         <v>318</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1022</v>
+        <v>1221</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1023</v>
@@ -12438,7 +12869,7 @@
         <v>319</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1024</v>
+        <v>1222</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1025</v>
@@ -12510,7 +12941,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>198</v>
+        <v>1223</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>199</v>
@@ -12548,7 +12979,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>1224</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
@@ -12700,7 +13131,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>1225</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>65</v>
@@ -12796,7 +13227,7 @@
         <v>320</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1026</v>
+        <v>1226</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1027</v>
@@ -12884,7 +13315,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>1227</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
@@ -12900,7 +13331,7 @@
         <v>322</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1030</v>
+        <v>1228</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1031</v>
@@ -12916,7 +13347,7 @@
         <v>323</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1032</v>
+        <v>1229</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1033</v>
@@ -12952,7 +13383,7 @@
         <v>289</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>959</v>
+        <v>1230</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>960</v>
@@ -12972,7 +13403,7 @@
         <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>1231</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>45</v>
@@ -12988,7 +13419,7 @@
         <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>327</v>
+        <v>1232</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>328</v>
@@ -13028,7 +13459,7 @@
         <v>140</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>426</v>
+        <v>1233</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>427</v>
@@ -13120,7 +13551,7 @@
         <v>324</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1034</v>
+        <v>1234</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1035</v>
@@ -13156,7 +13587,7 @@
         <v>325</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1036</v>
+        <v>1235</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1037</v>
@@ -13172,7 +13603,7 @@
         <v>326</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1038</v>
+        <v>1236</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1039</v>
@@ -13188,7 +13619,7 @@
         <v>53</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>1237</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>91</v>
@@ -13268,7 +13699,7 @@
         <v>327</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1040</v>
+        <v>1238</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>1041</v>
@@ -13284,7 +13715,7 @@
         <v>296</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>980</v>
+        <v>1239</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>981</v>
@@ -13378,7 +13809,7 @@
         <v>328</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1042</v>
+        <v>1240</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>1043</v>
@@ -13508,7 +13939,7 @@
         <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>299</v>
+        <v>1241</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>300</v>
@@ -13542,7 +13973,7 @@
         <v>330</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1046</v>
+        <v>1242</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1047</v>
@@ -13576,7 +14007,7 @@
         <v>331</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1048</v>
+        <v>1243</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1049</v>
@@ -13592,7 +14023,7 @@
         <v>332</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1050</v>
+        <v>1244</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>1051</v>
@@ -13724,7 +14155,7 @@
         <v>178</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>556</v>
+        <v>1245</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>557</v>
@@ -13844,7 +14275,7 @@
         <v>57</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>1246</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>103</v>
@@ -13938,7 +14369,7 @@
         <v>297</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>982</v>
+        <v>1247</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>983</v>
@@ -13954,7 +14385,7 @@
         <v>80</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>203</v>
+        <v>1248</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>204</v>
@@ -14032,7 +14463,7 @@
         <v>333</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1052</v>
+        <v>1249</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1053</v>
@@ -14200,7 +14631,7 @@
         <v>334</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1054</v>
+        <v>1250</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>1055</v>
@@ -14330,7 +14761,7 @@
         <v>298</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>984</v>
+        <v>1251</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>985</v>
@@ -14366,7 +14797,7 @@
         <v>335</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1056</v>
+        <v>1252</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1057</v>
@@ -14422,7 +14853,7 @@
         <v>170</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>531</v>
+        <v>1253</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>532</v>
@@ -14478,7 +14909,7 @@
         <v>336</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1058</v>
+        <v>1254</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>1059</v>
@@ -14514,7 +14945,7 @@
         <v>337</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1060</v>
+        <v>1255</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>1061</v>
@@ -14550,7 +14981,7 @@
         <v>338</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1062</v>
+        <v>1256</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>1063</v>
@@ -14586,7 +15017,7 @@
         <v>299</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>986</v>
+        <v>1257</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>987</v>
@@ -14602,7 +15033,7 @@
         <v>339</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1064</v>
+        <v>1258</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>1065</v>
@@ -14634,7 +15065,7 @@
         <v>37</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>56</v>
+        <v>1259</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>57</v>
@@ -14700,7 +15131,7 @@
         <v>340</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1066</v>
+        <v>1260</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>1067</v>
@@ -14812,7 +15243,7 @@
         <v>341</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1068</v>
+        <v>1261</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>1217</v>
@@ -14862,7 +15293,7 @@
         <v>342</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1069</v>
+        <v>1262</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>1218</v>
@@ -14898,7 +15329,7 @@
         <v>171</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>534</v>
+        <v>1263</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>535</v>
@@ -14954,7 +15385,7 @@
         <v>300</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>988</v>
+        <v>1264</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>989</v>
@@ -15102,7 +15533,7 @@
         <v>344</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1072</v>
+        <v>1265</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>1073</v>
@@ -15118,7 +15549,7 @@
         <v>28</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>38</v>
+        <v>1266</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>39</v>
@@ -15154,7 +15585,7 @@
         <v>345</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1074</v>
+        <v>1267</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1075</v>
@@ -15268,7 +15699,7 @@
         <v>346</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1076</v>
+        <v>1268</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>1077</v>
@@ -15358,7 +15789,7 @@
         <v>348</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1079</v>
+        <v>1269</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>1080</v>
@@ -15390,7 +15821,7 @@
         <v>349</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1081</v>
+        <v>1270</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>1082</v>
@@ -15422,7 +15853,7 @@
         <v>144</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>438</v>
+        <v>1271</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>439</v>
@@ -15458,7 +15889,7 @@
         <v>302</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>991</v>
+        <v>1272</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>992</v>
@@ -15510,7 +15941,7 @@
         <v>262</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>856</v>
+        <v>1273</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>857</v>
@@ -15528,7 +15959,7 @@
         <v>352</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1086</v>
+        <v>1274</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>1087</v>
@@ -15560,7 +15991,7 @@
         <v>353</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1088</v>
+        <v>1275</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>1089</v>
@@ -15576,7 +16007,7 @@
         <v>51</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>85</v>
+        <v>1276</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>84</v>
@@ -15612,7 +16043,7 @@
         <v>354</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1090</v>
+        <v>1277</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>1091</v>
@@ -15628,7 +16059,7 @@
         <v>355</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1092</v>
+        <v>1278</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>1093</v>
@@ -15644,7 +16075,7 @@
         <v>34</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>50</v>
+        <v>1279</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>51</v>
@@ -15698,7 +16129,7 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>643</v>
+        <v>1280</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>644</v>
@@ -15718,7 +16149,7 @@
         <v>356</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1094</v>
+        <v>1281</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>1095</v>
@@ -15734,7 +16165,7 @@
         <v>357</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1096</v>
+        <v>1282</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1097</v>
@@ -15770,7 +16201,7 @@
         <v>303</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>993</v>
+        <v>1283</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>994</v>
@@ -15786,7 +16217,7 @@
         <v>358</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1098</v>
+        <v>1284</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>1099</v>
@@ -15802,7 +16233,7 @@
         <v>304</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>995</v>
+        <v>1285</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>996</v>
@@ -15856,7 +16287,7 @@
         <v>359</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1100</v>
+        <v>1286</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>1101</v>
@@ -15872,7 +16303,7 @@
         <v>360</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1102</v>
+        <v>1287</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>1103</v>
@@ -15888,7 +16319,7 @@
         <v>50</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>83</v>
+        <v>1288</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>82</v>
@@ -15936,7 +16367,7 @@
         <v>17</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>14</v>
+        <v>1289</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>15</v>
@@ -15970,7 +16401,7 @@
         <v>363</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1108</v>
+        <v>1290</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>1109</v>
@@ -15986,7 +16417,7 @@
         <v>364</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1110</v>
+        <v>1291</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>1111</v>
@@ -16062,7 +16493,7 @@
         <v>365</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1112</v>
+        <v>1292</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>1113</v>
@@ -16136,7 +16567,7 @@
         <v>366</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1114</v>
+        <v>1293</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>1115</v>
@@ -16152,7 +16583,7 @@
         <v>129</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>375</v>
+        <v>1294</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>376</v>
@@ -16188,7 +16619,7 @@
         <v>368</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1118</v>
+        <v>1295</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>1119</v>
@@ -16242,7 +16673,7 @@
         <v>369</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1120</v>
+        <v>1296</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>1121</v>
@@ -16274,7 +16705,7 @@
         <v>305</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>997</v>
+        <v>1297</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>998</v>
@@ -16290,7 +16721,7 @@
         <v>370</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1122</v>
+        <v>1298</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>1123</v>
@@ -16306,7 +16737,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>775</v>
+        <v>1299</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>776</v>
@@ -16326,7 +16757,7 @@
         <v>371</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1124</v>
+        <v>1300</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>1125</v>
@@ -16342,7 +16773,7 @@
         <v>372</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1126</v>
+        <v>1301</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>1127</v>
@@ -16358,7 +16789,7 @@
         <v>373</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1128</v>
+        <v>1302</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>1129</v>
@@ -16374,7 +16805,7 @@
         <v>374</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1130</v>
+        <v>1303</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>1131</v>
@@ -16406,7 +16837,7 @@
         <v>376</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1134</v>
+        <v>1304</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>1135</v>
@@ -16462,7 +16893,7 @@
         <v>377</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1136</v>
+        <v>1305</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>1137</v>
@@ -16478,7 +16909,7 @@
         <v>378</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>1139</v>
@@ -16778,7 +17209,7 @@
         <v>381</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1142</v>
+        <v>1307</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>1143</v>
@@ -16944,7 +17375,7 @@
         <v>383</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1146</v>
+        <v>1308</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>1147</v>
@@ -16996,7 +17427,7 @@
         <v>384</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1148</v>
+        <v>1309</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>1149</v>
@@ -17032,7 +17463,7 @@
         <v>385</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1150</v>
+        <v>1310</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>1151</v>
@@ -17186,7 +17617,7 @@
         <v>386</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1152</v>
+        <v>1311</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>1153</v>
@@ -17202,7 +17633,7 @@
         <v>10</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>22</v>
+        <v>1312</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>23</v>
@@ -17238,7 +17669,7 @@
         <v>387</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1154</v>
+        <v>1313</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>1155</v>
@@ -17456,7 +17887,7 @@
         <v>306</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>999</v>
+        <v>1314</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>1000</v>
@@ -17492,7 +17923,7 @@
         <v>283</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>922</v>
+        <v>1315</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>923</v>
@@ -17510,7 +17941,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1001</v>
+        <v>1316</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>1002</v>
@@ -17526,7 +17957,7 @@
         <v>389</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1158</v>
+        <v>1317</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>1159</v>
@@ -17562,7 +17993,7 @@
         <v>390</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1160</v>
+        <v>1318</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>1161</v>
@@ -17672,7 +18103,7 @@
         <v>68</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>137</v>
+        <v>1319</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>138</v>
@@ -17690,7 +18121,7 @@
         <v>47</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>77</v>
+        <v>1320</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>76</v>
@@ -17726,7 +18157,7 @@
         <v>392</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1164</v>
+        <v>1321</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>1165</v>
@@ -17790,7 +18221,7 @@
         <v>394</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1167</v>
+        <v>1322</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>1168</v>
@@ -17806,7 +18237,7 @@
         <v>308</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1004</v>
+        <v>1323</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>1005</v>
@@ -17874,7 +18305,7 @@
         <v>26</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>34</v>
+        <v>1324</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>35</v>
@@ -17908,7 +18339,7 @@
         <v>126</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>366</v>
+        <v>1325</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>367</v>
@@ -17944,7 +18375,7 @@
         <v>396</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1171</v>
+        <v>1326</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>1172</v>
@@ -17960,7 +18391,7 @@
         <v>397</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1173</v>
+        <v>1327</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>1174</v>
@@ -17976,7 +18407,7 @@
         <v>398</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1175</v>
+        <v>1328</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>1176</v>
@@ -17992,7 +18423,7 @@
         <v>399</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1177</v>
+        <v>1329</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>1178</v>
@@ -18008,7 +18439,7 @@
         <v>400</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1179</v>
+        <v>1330</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>1180</v>
@@ -18024,7 +18455,7 @@
         <v>401</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1181</v>
+        <v>1331</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>1182</v>
@@ -18080,7 +18511,7 @@
         <v>402</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1183</v>
+        <v>1332</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>1184</v>
@@ -18114,7 +18545,7 @@
         <v>403</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1185</v>
+        <v>1333</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>1186</v>
@@ -18130,7 +18561,7 @@
         <v>404</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1187</v>
+        <v>1334</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>1188</v>
@@ -18166,7 +18597,7 @@
         <v>293</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>973</v>
+        <v>1335</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>974</v>
@@ -18306,7 +18737,7 @@
         <v>405</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1189</v>
+        <v>1336</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>1190</v>
@@ -18342,7 +18773,7 @@
         <v>49</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>81</v>
+        <v>1337</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>80</v>
@@ -18358,7 +18789,7 @@
         <v>89</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>231</v>
+        <v>1338</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>232</v>
@@ -18398,7 +18829,7 @@
         <v>217</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>703</v>
+        <v>1339</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>704</v>
@@ -18418,7 +18849,7 @@
         <v>169</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>528</v>
+        <v>1340</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>529</v>
@@ -18478,7 +18909,7 @@
         <v>218</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>706</v>
+        <v>1341</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>707</v>
@@ -18498,7 +18929,7 @@
         <v>39</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>60</v>
+        <v>1342</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>61</v>
@@ -18644,7 +19075,7 @@
         <v>408</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1194</v>
+        <v>1343</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>1195</v>
@@ -18660,7 +19091,7 @@
         <v>409</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1196</v>
+        <v>1344</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>1197</v>
@@ -18676,7 +19107,7 @@
         <v>190</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>611</v>
+        <v>1345</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>612</v>
@@ -18696,7 +19127,7 @@
         <v>410</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1198</v>
+        <v>1346</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>1199</v>
@@ -18712,7 +19143,7 @@
         <v>411</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1200</v>
+        <v>1347</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>1201</v>
@@ -18728,7 +19159,7 @@
         <v>412</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1202</v>
+        <v>1348</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>1203</v>
@@ -18764,7 +19195,7 @@
         <v>413</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1204</v>
+        <v>1349</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>1205</v>
@@ -18820,7 +19251,7 @@
         <v>414</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1206</v>
+        <v>1350</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>1207</v>
@@ -18836,7 +19267,7 @@
         <v>310</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1008</v>
+        <v>1351</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>1009</v>
@@ -18948,7 +19379,7 @@
         <v>48</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>79</v>
+        <v>1352</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>78</v>
@@ -18964,7 +19395,7 @@
         <v>416</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1210</v>
+        <v>1353</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>1211</v>
@@ -18980,7 +19411,7 @@
         <v>46</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>74</v>
+        <v>1354</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>75</v>
@@ -19014,7 +19445,7 @@
         <v>63</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>121</v>
+        <v>1355</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>122</v>
@@ -19054,7 +19485,7 @@
         <v>18</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>16</v>
+        <v>1356</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>17</v>
@@ -19090,7 +19521,7 @@
         <v>112</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>305</v>
+        <v>1357</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>306</v>
@@ -19148,7 +19579,7 @@
         <v>30</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>42</v>
+        <v>1358</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>43</v>
@@ -19184,7 +19615,7 @@
         <v>417</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1212</v>
+        <v>1359</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>1213</v>
@@ -19256,7 +19687,7 @@
         <v>118</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>324</v>
+        <v>1360</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>325</v>
@@ -19380,7 +19811,7 @@
         <v>192</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>617</v>
+        <v>1361</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>618</v>
@@ -19440,7 +19871,7 @@
         <v>242</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>795</v>
+        <v>1362</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>796</v>
@@ -19480,7 +19911,7 @@
         <v>201</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>646</v>
+        <v>1363</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>647</v>
@@ -19540,10 +19971,8 @@
     <sortCondition ref="B1:B418"/>
   </sortState>
   <conditionalFormatting sqref="B1:B418">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B418">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
